--- a/Andrew-annotations/PTEC_Q1_2009.xlsx
+++ b/Andrew-annotations/PTEC_Q1_2009.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB042DDA-1818-4679-883A-C48E737EC4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE8CC73-CB8C-41AA-9E34-421784EAA7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -332,6 +332,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,22 +694,22 @@
       <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4">
         <v>2</v>
       </c>
     </row>
@@ -723,22 +726,22 @@
       <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4">
         <v>2</v>
       </c>
     </row>
@@ -755,22 +758,22 @@
       <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
         <v>2</v>
       </c>
     </row>
@@ -787,22 +790,22 @@
       <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
         <v>2</v>
       </c>
     </row>
@@ -819,22 +822,22 @@
       <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
         <v>2</v>
       </c>
     </row>
@@ -851,22 +854,22 @@
       <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
         <v>2</v>
       </c>
     </row>
@@ -883,22 +886,22 @@
       <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
         <v>2</v>
       </c>
     </row>
@@ -915,22 +918,22 @@
       <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="J9" s="4">
         <v>2</v>
       </c>
     </row>
@@ -947,22 +950,22 @@
       <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
         <v>2</v>
       </c>
     </row>
@@ -979,22 +982,22 @@
       <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11">
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1011,22 +1014,22 @@
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>2</v>
+      </c>
+      <c r="J12" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1043,22 +1046,22 @@
       <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13">
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2</v>
+      </c>
+      <c r="J13" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1075,22 +1078,22 @@
       <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14">
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2</v>
+      </c>
+      <c r="J14" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1107,22 +1110,22 @@
       <c r="D15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15">
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1139,22 +1142,22 @@
       <c r="D16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16">
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2</v>
+      </c>
+      <c r="J16" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1171,22 +1174,22 @@
       <c r="D17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17">
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1203,22 +1206,22 @@
       <c r="D18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18">
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2</v>
+      </c>
+      <c r="J18" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1235,22 +1238,22 @@
       <c r="D19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19">
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1267,22 +1270,22 @@
       <c r="D20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20">
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1299,23 +1302,23 @@
       <c r="D21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1331,22 +1334,22 @@
       <c r="D22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
-      <c r="J22">
+      <c r="E22" s="4">
+        <v>2</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2</v>
+      </c>
+      <c r="J22" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1363,22 +1366,22 @@
       <c r="D23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23">
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2</v>
+      </c>
+      <c r="J23" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1395,22 +1398,22 @@
       <c r="D24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
-      <c r="J24">
+      <c r="E24" s="4">
+        <v>2</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1427,22 +1430,22 @@
       <c r="D25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
-      <c r="J25">
+      <c r="E25" s="4">
+        <v>2</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1459,22 +1462,22 @@
       <c r="D26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
-      <c r="J26">
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1491,22 +1494,22 @@
       <c r="D27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27">
+      <c r="E27" s="4">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1523,22 +1526,22 @@
       <c r="D28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28">
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1555,22 +1558,22 @@
       <c r="D29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29">
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1587,22 +1590,22 @@
       <c r="D30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
-      <c r="J30">
+      <c r="E30" s="4">
+        <v>2</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>2</v>
+      </c>
+      <c r="J30" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1619,22 +1622,22 @@
       <c r="D31" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31">
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4">
+        <v>2</v>
+      </c>
+      <c r="J31" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1651,22 +1654,22 @@
       <c r="D32" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>2</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32">
+      <c r="E32" s="4">
+        <v>2</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1683,22 +1686,22 @@
       <c r="D33" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33">
+      <c r="E33" s="4">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>2</v>
+      </c>
+      <c r="I33" s="4">
+        <v>2</v>
+      </c>
+      <c r="J33" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1715,22 +1718,22 @@
       <c r="D34" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>2</v>
-      </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
-      <c r="J34">
+      <c r="E34" s="4">
+        <v>2</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
         <v>2</v>
       </c>
     </row>
